--- a/resultados/geral_por_RM_UF.xlsx
+++ b/resultados/geral_por_RM_UF.xlsx
@@ -505,13 +505,13 @@
         <v>0.7803418803418803</v>
       </c>
       <c r="H2" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I2" t="n">
-        <v>1.512820512820513</v>
+        <v>1.51025641025641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9897435897435898</v>
+        <v>0.9914529914529915</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +539,13 @@
         <v>0.8079922027290448</v>
       </c>
       <c r="H3" t="n">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="I3" t="n">
-        <v>1.105960264900662</v>
+        <v>1.100283822138127</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9376218323586745</v>
+        <v>0.9395711500974658</v>
       </c>
     </row>
     <row r="4">
@@ -573,10 +573,10 @@
         <v>0.9086021505376344</v>
       </c>
       <c r="H4" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07258064516129</v>
+        <v>1.112903225806452</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -607,13 +607,13 @@
         <v>0.7566765578635015</v>
       </c>
       <c r="H5" t="n">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="I5" t="n">
-        <v>1.314540059347181</v>
+        <v>1.350148367952522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9802176063303659</v>
+        <v>0.9772502472799208</v>
       </c>
     </row>
     <row r="6">
@@ -641,13 +641,13 @@
         <v>0.7537810042347247</v>
       </c>
       <c r="H6" t="n">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="I6" t="n">
-        <v>1.782214156079855</v>
+        <v>1.74410163339383</v>
       </c>
       <c r="J6" t="n">
-        <v>0.969147005444646</v>
+        <v>0.9685420447670902</v>
       </c>
     </row>
     <row r="7">
@@ -675,10 +675,10 @@
         <v>0.7433333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I7" t="n">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -709,10 +709,10 @@
         <v>0.8699186991869918</v>
       </c>
       <c r="H8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" t="n">
-        <v>2.51219512195122</v>
+        <v>2.536585365853659</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         <v>0.8564476885644768</v>
       </c>
       <c r="H9" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I9" t="n">
-        <v>1.948905109489051</v>
+        <v>1.91970802919708</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -777,13 +777,13 @@
         <v>0.7514450867052023</v>
       </c>
       <c r="H10" t="n">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="I10" t="n">
-        <v>1.289017341040462</v>
+        <v>1.296724470134875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9502247912652537</v>
+        <v>0.9473346178548491</v>
       </c>
     </row>
     <row r="11">
@@ -845,10 +845,10 @@
         <v>0.826530612244898</v>
       </c>
       <c r="H12" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I12" t="n">
-        <v>2.081632653061225</v>
+        <v>2.102040816326531</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -879,13 +879,13 @@
         <v>0.7219343696027634</v>
       </c>
       <c r="H13" t="n">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I13" t="n">
-        <v>1.221070811744387</v>
+        <v>1.216753022452504</v>
       </c>
       <c r="J13" t="n">
-        <v>0.927461139896373</v>
+        <v>0.9242947610823259</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>811</v>
       </c>
       <c r="E14" t="n">
-        <v>1320</v>
+        <v>1027</v>
       </c>
       <c r="F14" t="n">
-        <v>1.627620221948212</v>
+        <v>1.266337854500617</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8388820386354295</v>
+        <v>0.8947801068639539</v>
       </c>
       <c r="H14" t="n">
-        <v>1400</v>
+        <v>1114</v>
       </c>
       <c r="I14" t="n">
-        <v>1.726263871763255</v>
+        <v>1.373612823674476</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9819153308672421</v>
+        <v>0.9905466502260584</v>
       </c>
     </row>
     <row r="15">
@@ -938,19 +938,19 @@
         <v>71</v>
       </c>
       <c r="E15" t="n">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F15" t="n">
-        <v>2.394366197183099</v>
+        <v>2.126760563380282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="H15" t="n">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I15" t="n">
-        <v>2.436619718309859</v>
+        <v>2.056338028169014</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -981,13 +981,13 @@
         <v>0.8176100628930818</v>
       </c>
       <c r="H16" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="I16" t="n">
-        <v>2.113207547169811</v>
+        <v>2.128301886792453</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9949685534591195</v>
+        <v>0.9974842767295597</v>
       </c>
     </row>
     <row r="17">
@@ -1015,13 +1015,13 @@
         <v>0.827485380116959</v>
       </c>
       <c r="H17" t="n">
-        <v>3767</v>
+        <v>3758</v>
       </c>
       <c r="I17" t="n">
-        <v>1.376827485380117</v>
+        <v>1.373538011695906</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9512670565302144</v>
+        <v>0.9522417153996101</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +1040,22 @@
         <v>3234</v>
       </c>
       <c r="E18" t="n">
-        <v>4819</v>
+        <v>4698</v>
       </c>
       <c r="F18" t="n">
-        <v>1.490105132962276</v>
+        <v>1.452690166975881</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8531230674087817</v>
+        <v>0.8593073593073594</v>
       </c>
       <c r="H18" t="n">
-        <v>5278</v>
+        <v>4497</v>
       </c>
       <c r="I18" t="n">
-        <v>1.632034632034632</v>
+        <v>1.390538033395176</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9466089466089466</v>
+        <v>0.9706246134817563</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>423</v>
       </c>
       <c r="E19" t="n">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F19" t="n">
-        <v>1.283687943262411</v>
+        <v>1.198581560283688</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8841607565011821</v>
+        <v>0.8912529550827423</v>
       </c>
       <c r="H19" t="n">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="I19" t="n">
-        <v>1.378250591016549</v>
+        <v>1.278959810874704</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9976359338061466</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>273</v>
       </c>
       <c r="E20" t="n">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F20" t="n">
-        <v>1.981684981684982</v>
+        <v>1.93040293040293</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9133089133089133</v>
+        <v>0.9157509157509157</v>
       </c>
       <c r="H20" t="n">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="I20" t="n">
-        <v>1.684981684981685</v>
+        <v>1.593406593406593</v>
       </c>
       <c r="J20" t="n">
         <v>0.9987789987789988</v>
@@ -1151,13 +1151,13 @@
         <v>0.8326745718050066</v>
       </c>
       <c r="H21" t="n">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I21" t="n">
-        <v>2.766798418972332</v>
+        <v>2.758893280632411</v>
       </c>
       <c r="J21" t="n">
-        <v>0.997364953886693</v>
+        <v>0.9960474308300395</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>0.811965811965812</v>
       </c>
       <c r="H23" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I23" t="n">
-        <v>3.179487179487179</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1253,10 +1253,10 @@
         <v>0.92</v>
       </c>
       <c r="H24" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I24" t="n">
-        <v>5.44</v>
+        <v>5.36</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1287,13 +1287,13 @@
         <v>0.8538681948424068</v>
       </c>
       <c r="H25" t="n">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="I25" t="n">
-        <v>3.077363896848138</v>
+        <v>3.045845272206304</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9980897803247374</v>
+        <v>0.9923591212989494</v>
       </c>
     </row>
     <row r="26">
@@ -1321,13 +1321,13 @@
         <v>0.7945205479452054</v>
       </c>
       <c r="H26" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="I26" t="n">
-        <v>3.794520547945206</v>
+        <v>4.082191780821918</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.9954337899543378</v>
       </c>
     </row>
     <row r="27">
@@ -1346,19 +1346,19 @@
         <v>181</v>
       </c>
       <c r="E27" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F27" t="n">
-        <v>4.94475138121547</v>
+        <v>4.950276243093922</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8121546961325967</v>
+        <v>0.8066298342541437</v>
       </c>
       <c r="H27" t="n">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="I27" t="n">
-        <v>4.767955801104972</v>
+        <v>4.591160220994476</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1389,13 +1389,13 @@
         <v>0.8026905829596412</v>
       </c>
       <c r="H28" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I28" t="n">
-        <v>1.426008968609865</v>
+        <v>1.42152466367713</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9985052316890882</v>
+        <v>0.9955156950672646</v>
       </c>
     </row>
     <row r="29">
@@ -1423,10 +1423,10 @@
         <v>0.8282828282828283</v>
       </c>
       <c r="H29" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I29" t="n">
-        <v>4.151515151515151</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1457,13 +1457,13 @@
         <v>0.8865248226950354</v>
       </c>
       <c r="H30" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I30" t="n">
-        <v>3.627659574468085</v>
+        <v>3.542553191489362</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.9964539007092199</v>
       </c>
     </row>
     <row r="31">
@@ -1491,10 +1491,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I31" t="n">
-        <v>1.333333333333333</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="H32" t="n">
-        <v>1406</v>
+        <v>1327</v>
       </c>
       <c r="I32" t="n">
-        <v>36.05128205128205</v>
+        <v>34.02564102564103</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1559,10 +1559,10 @@
         <v>0.8601190476190477</v>
       </c>
       <c r="H33" t="n">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I33" t="n">
-        <v>4.098214285714286</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1584,19 +1584,19 @@
         <v>94</v>
       </c>
       <c r="E34" t="n">
-        <v>2852</v>
+        <v>1559</v>
       </c>
       <c r="F34" t="n">
-        <v>30.34042553191489</v>
+        <v>16.58510638297872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="H34" t="n">
-        <v>2333</v>
+        <v>1538</v>
       </c>
       <c r="I34" t="n">
-        <v>24.81914893617021</v>
+        <v>16.36170212765957</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1627,10 +1627,10 @@
         <v>0.7716535433070866</v>
       </c>
       <c r="H35" t="n">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="I35" t="n">
-        <v>7.732283464566929</v>
+        <v>7.511811023622047</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1661,10 +1661,10 @@
         <v>0.8045977011494253</v>
       </c>
       <c r="H36" t="n">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="I36" t="n">
-        <v>29.44827586206896</v>
+        <v>30.79310344827586</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1695,10 +1695,10 @@
         <v>0.9308176100628931</v>
       </c>
       <c r="H37" t="n">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="I37" t="n">
-        <v>15.24528301886792</v>
+        <v>15.45283018867925</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1729,13 +1729,13 @@
         <v>0.8096906012842966</v>
       </c>
       <c r="H38" t="n">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="I38" t="n">
-        <v>2.460595446584939</v>
+        <v>2.423817863397548</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9772329246935202</v>
+        <v>0.978984238178634</v>
       </c>
     </row>
     <row r="39">
@@ -1763,10 +1763,10 @@
         <v>0.8707482993197279</v>
       </c>
       <c r="H39" t="n">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="I39" t="n">
-        <v>5.224489795918367</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -1797,10 +1797,10 @@
         <v>0.9057239057239057</v>
       </c>
       <c r="H40" t="n">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="I40" t="n">
-        <v>13.56565656565657</v>
+        <v>13.43434343434343</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -1831,10 +1831,10 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="I41" t="n">
-        <v>14.58333333333333</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -1856,19 +1856,19 @@
         <v>189</v>
       </c>
       <c r="E42" t="n">
-        <v>2104</v>
+        <v>1810</v>
       </c>
       <c r="F42" t="n">
-        <v>11.13227513227513</v>
+        <v>9.576719576719576</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9435626102292769</v>
       </c>
       <c r="H42" t="n">
-        <v>1701</v>
+        <v>1355</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>7.169312169312169</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -1899,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="I43" t="n">
-        <v>29.125</v>
+        <v>25.625</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -1933,10 +1933,10 @@
         <v>0.9354838709677419</v>
       </c>
       <c r="H44" t="n">
-        <v>2284</v>
+        <v>2456</v>
       </c>
       <c r="I44" t="n">
-        <v>73.6774193548387</v>
+        <v>79.2258064516129</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -1967,10 +1967,10 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="H45" t="n">
-        <v>1107</v>
+        <v>1121</v>
       </c>
       <c r="I45" t="n">
-        <v>61.5</v>
+        <v>62.27777777777778</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>

--- a/resultados/geral_por_RM_UF.xlsx
+++ b/resultados/geral_por_RM_UF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>quantidade_de_municipios_processados</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>quantidade_original_de_setores_normais</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>quantidade_original_de_setores_subnormais</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>atribuidos_como_subnormais_LDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>proporcao_atribuido_original_LDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>score_LDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>atribuidos_como_subnormais_RandomForest</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>proporcao_atribuido_original_RandomForest</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>score_RandomForest</t>
         </is>
@@ -490,27 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
         <v>2509</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>390</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1.407692307692308</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.7803418803418803</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>589</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.51025641025641</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.9914529914529915</v>
       </c>
     </row>
@@ -524,27 +532,30 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>995</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1057</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1269</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1.200567644276254</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.8079922027290448</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1163</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.100283822138127</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.9395711500974658</v>
       </c>
     </row>
@@ -558,27 +569,30 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>462</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>124</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>140</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1.129032258064516</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.9086021505376344</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>138</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.112903225806452</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -592,27 +606,30 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
         <v>1195</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>337</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>350</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1.038575667655786</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.7566765578635015</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>455</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.350148367952522</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.9772502472799208</v>
       </c>
     </row>
@@ -626,27 +643,30 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>3929</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>551</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>800</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1.451905626134301</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.7537810042347247</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>961</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.74410163339383</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.9685420447670902</v>
       </c>
     </row>
@@ -660,27 +680,30 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
         <v>1475</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>100</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>277</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>2.77</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.7433333333333333</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>287</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>2.87</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,27 +717,30 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
         <v>973</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>41</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>147</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.585365853658537</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.8699186991869918</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>104</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.536585365853659</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,27 +754,30 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
         <v>1499</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>137</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>292</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.131386861313869</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.8564476885644768</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>263</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1.91970802919708</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,27 +791,30 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
         <v>3497</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1038</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>995</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.9585741811175337</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.7514450867052023</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1346</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>1.296724470134875</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.9473346178548491</v>
       </c>
     </row>
@@ -796,27 +828,30 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
         <v>1113</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>201</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>248</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1.233830845771144</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.8756218905472637</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>253</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1.258706467661691</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.9983416252072969</v>
       </c>
     </row>
@@ -830,27 +865,30 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
         <v>1025</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>98</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>220</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.244897959183673</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.826530612244898</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>206</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2.102040816326531</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,27 +902,30 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="n">
         <v>3865</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1158</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>978</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.844559585492228</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.7219343696027634</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>1409</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.216753022452504</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.9242947610823259</v>
       </c>
     </row>
@@ -898,27 +939,30 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" t="n">
         <v>7712</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>811</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1027</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.266337854500617</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.8947801068639539</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1114</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1.373612823674476</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.9905466502260584</v>
       </c>
     </row>
@@ -932,27 +976,30 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
         <v>907</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>71</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>151</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.126760563380282</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.7746478873239436</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>146</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>2.056338028169014</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -966,27 +1013,30 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
         <v>2573</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>265</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>542</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>2.045283018867925</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.8176100628930818</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>564</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2.128301886792453</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.9974842767295597</v>
       </c>
     </row>
@@ -1000,27 +1050,30 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
         <v>16771</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>2736</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3501</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.279605263157895</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.827485380116959</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>3758</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1.373538011695906</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.9522417153996101</v>
       </c>
     </row>
@@ -1034,27 +1087,30 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>39</v>
+      </c>
+      <c r="D18" t="n">
         <v>26709</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>3234</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>4698</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.452690166975881</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.8593073593073594</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>4497</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1.390538033395176</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.9706246134817563</v>
       </c>
     </row>
@@ -1068,27 +1124,30 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
         <v>2545</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>423</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>507</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.198581560283688</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.8912529550827423</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>541</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1.278959810874704</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.9976359338061466</v>
       </c>
     </row>
@@ -1102,27 +1161,30 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
         <v>3840</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>273</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>527</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.93040293040293</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.9157509157509157</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>435</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1.593406593406593</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.9987789987789988</v>
       </c>
     </row>
@@ -1136,27 +1198,30 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
         <v>4095</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>253</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>546</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.158102766798419</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.8326745718050066</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>698</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>2.758893280632411</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.9960474308300395</v>
       </c>
     </row>
@@ -1170,27 +1235,30 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>22</v>
+      </c>
+      <c r="D22" t="n">
         <v>1501</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>27</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>143</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>5.296296296296297</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.9382716049382716</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>108</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,27 +1272,30 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D23" t="n">
         <v>1079</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>39</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>144</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3.692307692307693</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.811965811965812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>126</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>3.230769230769231</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1309,30 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>18</v>
+      </c>
+      <c r="D24" t="n">
         <v>925</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>25</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>229</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>9.16</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.92</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>134</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>5.36</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,27 +1346,30 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>31</v>
+      </c>
+      <c r="D25" t="n">
         <v>6622</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>349</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1048</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>3.002865329512894</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.8538681948424068</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>1063</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>3.045845272206304</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.9923591212989494</v>
       </c>
     </row>
@@ -1306,27 +1383,30 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>13</v>
+      </c>
+      <c r="D26" t="n">
         <v>1445</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>73</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>290</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3.972602739726027</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.7945205479452054</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>298</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>4.082191780821918</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.9954337899543378</v>
       </c>
     </row>
@@ -1340,27 +1420,30 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
         <v>5878</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>181</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>896</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>4.950276243093922</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.8066298342541437</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>831</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>4.591160220994476</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,27 +1457,30 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>14</v>
+      </c>
+      <c r="D28" t="n">
         <v>1360</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>223</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>313</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>1.403587443946188</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.8026905829596412</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>317</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1.42152466367713</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.9955156950672646</v>
       </c>
     </row>
@@ -1408,27 +1494,30 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" t="n">
         <v>841</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>33</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>183</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>5.545454545454546</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.8282828282828283</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>154</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,27 +1531,30 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>54</v>
+      </c>
+      <c r="D30" t="n">
         <v>2648</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>94</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>433</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>4.606382978723405</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.8865248226950354</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>333</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>3.542553191489362</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.9964539007092199</v>
       </c>
     </row>
@@ -1476,27 +1568,30 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="n">
         <v>194</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>30</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>48</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.6</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>44</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1.466666666666667</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,27 +1605,30 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>400</v>
+      </c>
+      <c r="D32" t="n">
         <v>18250</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>39</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>2577</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>66.07692307692308</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>1327</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>34.02564102564103</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,27 +1642,30 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>71</v>
+      </c>
+      <c r="D33" t="n">
         <v>3430</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>112</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>500</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>4.464285714285714</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.8601190476190477</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>450</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>4.017857142857143</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,27 +1679,30 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>777</v>
+      </c>
+      <c r="D34" t="n">
         <v>22740</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>94</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1559</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>16.58510638297872</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.8723404255319149</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>1538</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>16.36170212765957</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,27 +1716,30 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>137</v>
+      </c>
+      <c r="D35" t="n">
         <v>6590</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>127</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1088</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>8.566929133858268</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.7716535433070866</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>954</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>7.511811023622047</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1646,27 +1753,30 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>167</v>
+      </c>
+      <c r="D36" t="n">
         <v>7353</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>29</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>850</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>29.31034482758621</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.8045977011494253</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>893</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>30.79310344827586</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,27 +1790,30 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>348</v>
+      </c>
+      <c r="D37" t="n">
         <v>11897</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>53</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>1233</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>23.26415094339623</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.9308176100628931</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>819</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>15.45283018867925</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,27 +1827,30 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>73</v>
+      </c>
+      <c r="D38" t="n">
         <v>7691</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>571</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>1322</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>2.31523642732049</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.8096906012842966</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1384</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>2.423817863397548</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0.978984238178634</v>
       </c>
     </row>
@@ -1748,27 +1864,30 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>52</v>
+      </c>
+      <c r="D39" t="n">
         <v>2297</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>49</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>362</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>7.387755102040816</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.8707482993197279</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>217</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4.428571428571429</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1782,27 +1901,30 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>465</v>
+      </c>
+      <c r="D40" t="n">
         <v>15262</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>99</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1664</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>16.80808080808081</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.9057239057239057</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1330</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>13.43434343434343</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,27 +1938,30 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>164</v>
+      </c>
+      <c r="D41" t="n">
         <v>5639</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>24</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>490</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>20.41666666666667</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>307</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>12.79166666666667</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,27 +1975,30 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>578</v>
+      </c>
+      <c r="D42" t="n">
         <v>28883</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>189</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>1810</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>9.576719576719576</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.9435626102292769</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>1355</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>7.169312169312169</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,31 +2008,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Macro Região</t>
+          <t>Macro Região 1.0</t>
         </is>
       </c>
       <c r="C43" t="n">
+        <v>154</v>
+      </c>
+      <c r="D43" t="n">
         <v>2905</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>8</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>287</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>35.875</v>
       </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>205</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>25.625</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,31 +2045,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Macro Região</t>
+          <t>Macro Região 2.0</t>
         </is>
       </c>
       <c r="C44" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D44" t="n">
         <v>30831</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>31</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>4280</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>138.0645161290323</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.9354838709677419</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>2456</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>79.2258064516129</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,31 +2082,34 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Macro Região</t>
+          <t>Macro Região 5.0</t>
         </is>
       </c>
       <c r="C45" t="n">
+        <v>433</v>
+      </c>
+      <c r="D45" t="n">
         <v>16553</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>18</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>2972</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>165.1111111111111</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>1121</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>62.27777777777778</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/resultados/geral_por_RM_UF.xlsx
+++ b/resultados/geral_por_RM_UF.xlsx
@@ -504,22 +504,22 @@
         <v>390</v>
       </c>
       <c r="F2" t="n">
-        <v>549</v>
+        <v>155</v>
       </c>
       <c r="G2" t="n">
-        <v>1.407692307692308</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7803418803418803</v>
+        <v>0.8720248361503967</v>
       </c>
       <c r="I2" t="n">
-        <v>589</v>
+        <v>343</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51025641025641</v>
+        <v>0.8794871794871795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9914529914529915</v>
+        <v>0.9824077268023457</v>
       </c>
     </row>
     <row r="3">
@@ -541,22 +541,22 @@
         <v>1057</v>
       </c>
       <c r="F3" t="n">
-        <v>1269</v>
+        <v>1174</v>
       </c>
       <c r="G3" t="n">
-        <v>1.200567644276254</v>
+        <v>1.110690633869442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8079922027290448</v>
+        <v>0.7841130604288499</v>
       </c>
       <c r="I3" t="n">
-        <v>1163</v>
+        <v>1182</v>
       </c>
       <c r="J3" t="n">
-        <v>1.100283822138127</v>
+        <v>1.118259224219489</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9395711500974658</v>
+        <v>0.9332358674463938</v>
       </c>
     </row>
     <row r="4">
@@ -578,19 +578,19 @@
         <v>124</v>
       </c>
       <c r="F4" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>1.129032258064516</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9086021505376344</v>
+        <v>0.9419795221843004</v>
       </c>
       <c r="I4" t="n">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J4" t="n">
-        <v>1.112903225806452</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -615,22 +615,22 @@
         <v>337</v>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="G5" t="n">
-        <v>1.038575667655786</v>
+        <v>0.6350148367952523</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7566765578635015</v>
+        <v>0.8139686684073107</v>
       </c>
       <c r="I5" t="n">
-        <v>455</v>
+        <v>326</v>
       </c>
       <c r="J5" t="n">
-        <v>1.350148367952522</v>
+        <v>0.9673590504451038</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9772502472799208</v>
+        <v>0.9849869451697127</v>
       </c>
     </row>
     <row r="6">
@@ -652,22 +652,22 @@
         <v>551</v>
       </c>
       <c r="F6" t="n">
-        <v>800</v>
+        <v>134</v>
       </c>
       <c r="G6" t="n">
-        <v>1.451905626134301</v>
+        <v>0.2431941923774955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7537810042347247</v>
+        <v>0.8698660714285714</v>
       </c>
       <c r="I6" t="n">
-        <v>961</v>
+        <v>265</v>
       </c>
       <c r="J6" t="n">
-        <v>1.74410163339383</v>
+        <v>0.4809437386569873</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9685420447670902</v>
+        <v>0.9361607142857142</v>
       </c>
     </row>
     <row r="7">
@@ -689,22 +689,22 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.77</v>
+        <v>0.25</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7433333333333333</v>
+        <v>0.9307936507936508</v>
       </c>
       <c r="I7" t="n">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>0.65</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
     </row>
     <row r="8">
@@ -726,19 +726,19 @@
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.585365853658537</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8699186991869918</v>
+        <v>0.9625246548323472</v>
       </c>
       <c r="I8" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>2.536585365853659</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -763,22 +763,22 @@
         <v>137</v>
       </c>
       <c r="F9" t="n">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
-        <v>2.131386861313869</v>
+        <v>0.6423357664233577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8564476885644768</v>
+        <v>0.9272616136919315</v>
       </c>
       <c r="I9" t="n">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91970802919708</v>
+        <v>0.9927007299270073</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.9993887530562348</v>
       </c>
     </row>
     <row r="10">
@@ -800,22 +800,22 @@
         <v>1038</v>
       </c>
       <c r="F10" t="n">
-        <v>995</v>
+        <v>536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9585741811175337</v>
+        <v>0.5163776493256262</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7514450867052023</v>
+        <v>0.8063947078280044</v>
       </c>
       <c r="I10" t="n">
-        <v>1346</v>
+        <v>801</v>
       </c>
       <c r="J10" t="n">
-        <v>1.296724470134875</v>
+        <v>0.7716763005780347</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9473346178548491</v>
+        <v>0.9296582138919515</v>
       </c>
     </row>
     <row r="11">
@@ -837,22 +837,22 @@
         <v>201</v>
       </c>
       <c r="F11" t="n">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="G11" t="n">
-        <v>1.233830845771144</v>
+        <v>0.7064676616915423</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8756218905472637</v>
+        <v>0.906392694063927</v>
       </c>
       <c r="I11" t="n">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="J11" t="n">
-        <v>1.258706467661691</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9983416252072969</v>
+        <v>0.9984779299847792</v>
       </c>
     </row>
     <row r="12">
@@ -874,19 +874,19 @@
         <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>2.244897959183673</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="H12" t="n">
-        <v>0.826530612244898</v>
+        <v>0.9136242208370436</v>
       </c>
       <c r="I12" t="n">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="J12" t="n">
-        <v>2.102040816326531</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -911,22 +911,22 @@
         <v>1158</v>
       </c>
       <c r="F13" t="n">
-        <v>978</v>
+        <v>553</v>
       </c>
       <c r="G13" t="n">
-        <v>0.844559585492228</v>
+        <v>0.4775474956822107</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7219343696027634</v>
+        <v>0.7879753135576348</v>
       </c>
       <c r="I13" t="n">
-        <v>1409</v>
+        <v>857</v>
       </c>
       <c r="J13" t="n">
-        <v>1.216753022452504</v>
+        <v>0.7400690846286702</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9242947610823259</v>
+        <v>0.9126020306589687</v>
       </c>
     </row>
     <row r="14">
@@ -948,22 +948,22 @@
         <v>811</v>
       </c>
       <c r="F14" t="n">
-        <v>1027</v>
+        <v>322</v>
       </c>
       <c r="G14" t="n">
-        <v>1.266337854500617</v>
+        <v>0.3970406905055487</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8947801068639539</v>
+        <v>0.9121201454886777</v>
       </c>
       <c r="I14" t="n">
-        <v>1114</v>
+        <v>624</v>
       </c>
       <c r="J14" t="n">
-        <v>1.373612823674476</v>
+        <v>0.7694204685573366</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9905466502260584</v>
+        <v>0.9754781180335562</v>
       </c>
     </row>
     <row r="15">
@@ -985,22 +985,22 @@
         <v>71</v>
       </c>
       <c r="F15" t="n">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.126760563380282</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.9274028629856851</v>
       </c>
       <c r="I15" t="n">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="J15" t="n">
-        <v>2.056338028169014</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.9948875255623721</v>
       </c>
     </row>
     <row r="16">
@@ -1022,22 +1022,22 @@
         <v>265</v>
       </c>
       <c r="F16" t="n">
-        <v>542</v>
+        <v>150</v>
       </c>
       <c r="G16" t="n">
-        <v>2.045283018867925</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8176100628930818</v>
+        <v>0.9094432699083862</v>
       </c>
       <c r="I16" t="n">
-        <v>564</v>
+        <v>220</v>
       </c>
       <c r="J16" t="n">
-        <v>2.128301886792453</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9974842767295597</v>
+        <v>0.9841437632135307</v>
       </c>
     </row>
     <row r="17">
@@ -1059,22 +1059,22 @@
         <v>2736</v>
       </c>
       <c r="F17" t="n">
-        <v>3501</v>
+        <v>1004</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279605263157895</v>
+        <v>0.3669590643274854</v>
       </c>
       <c r="H17" t="n">
-        <v>0.827485380116959</v>
+        <v>0.8666119854411237</v>
       </c>
       <c r="I17" t="n">
-        <v>3758</v>
+        <v>2066</v>
       </c>
       <c r="J17" t="n">
-        <v>1.373538011695906</v>
+        <v>0.7551169590643275</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9522417153996101</v>
+        <v>0.9485312964576819</v>
       </c>
     </row>
     <row r="18">
@@ -1096,22 +1096,22 @@
         <v>3234</v>
       </c>
       <c r="F18" t="n">
-        <v>4698</v>
+        <v>2130</v>
       </c>
       <c r="G18" t="n">
-        <v>1.452690166975881</v>
+        <v>0.6586270871985158</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8593073593073594</v>
+        <v>0.9163076512039542</v>
       </c>
       <c r="I18" t="n">
-        <v>4497</v>
+        <v>2600</v>
       </c>
       <c r="J18" t="n">
-        <v>1.390538033395176</v>
+        <v>0.8039579468150897</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9706246134817563</v>
+        <v>0.9601910296229502</v>
       </c>
     </row>
     <row r="19">
@@ -1133,22 +1133,22 @@
         <v>423</v>
       </c>
       <c r="F19" t="n">
-        <v>507</v>
+        <v>298</v>
       </c>
       <c r="G19" t="n">
-        <v>1.198581560283688</v>
+        <v>0.7044917257683215</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8912529550827423</v>
+        <v>0.9033018867924528</v>
       </c>
       <c r="I19" t="n">
-        <v>541</v>
+        <v>429</v>
       </c>
       <c r="J19" t="n">
-        <v>1.278959810874704</v>
+        <v>1.014184397163121</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9976359338061466</v>
+        <v>0.9952830188679245</v>
       </c>
     </row>
     <row r="20">
@@ -1170,22 +1170,22 @@
         <v>273</v>
       </c>
       <c r="F20" t="n">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93040293040293</v>
+        <v>0.8241758241758241</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9157509157509157</v>
+        <v>0.9528324823729638</v>
       </c>
       <c r="I20" t="n">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="J20" t="n">
-        <v>1.593406593406593</v>
+        <v>1.003663003663004</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9987789987789988</v>
+        <v>0.9978118161925602</v>
       </c>
     </row>
     <row r="21">
@@ -1207,22 +1207,22 @@
         <v>253</v>
       </c>
       <c r="F21" t="n">
-        <v>546</v>
+        <v>66</v>
       </c>
       <c r="G21" t="n">
-        <v>2.158102766798419</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8326745718050066</v>
+        <v>0.9491720331186753</v>
       </c>
       <c r="I21" t="n">
-        <v>698</v>
+        <v>124</v>
       </c>
       <c r="J21" t="n">
-        <v>2.758893280632411</v>
+        <v>0.4901185770750988</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9960474308300395</v>
+        <v>0.9703311867525299</v>
       </c>
     </row>
     <row r="22">
@@ -1244,19 +1244,19 @@
         <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>5.296296296296297</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9382716049382716</v>
+        <v>0.9829842931937173</v>
       </c>
       <c r="I22" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1281,19 +1281,19 @@
         <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>3.692307692307693</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="H23" t="n">
-        <v>0.811965811965812</v>
+        <v>0.964221824686941</v>
       </c>
       <c r="I23" t="n">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="J23" t="n">
-        <v>3.230769230769231</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1318,19 +1318,19 @@
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>9.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.92</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="I24" t="n">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>5.36</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1355,22 +1355,22 @@
         <v>349</v>
       </c>
       <c r="F25" t="n">
-        <v>1048</v>
+        <v>188</v>
       </c>
       <c r="G25" t="n">
-        <v>3.002865329512894</v>
+        <v>0.5386819484240688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8538681948424068</v>
+        <v>0.948214029550997</v>
       </c>
       <c r="I25" t="n">
-        <v>1063</v>
+        <v>254</v>
       </c>
       <c r="J25" t="n">
-        <v>3.045845272206304</v>
+        <v>0.7277936962750716</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9923591212989494</v>
+        <v>0.986372113039736</v>
       </c>
     </row>
     <row r="26">
@@ -1392,22 +1392,22 @@
         <v>73</v>
       </c>
       <c r="F26" t="n">
-        <v>290</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>3.972602739726027</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7945205479452054</v>
+        <v>0.953227931488801</v>
       </c>
       <c r="I26" t="n">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="J26" t="n">
-        <v>4.082191780821918</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9954337899543378</v>
+        <v>0.9828722002635046</v>
       </c>
     </row>
     <row r="27">
@@ -1429,22 +1429,22 @@
         <v>181</v>
       </c>
       <c r="F27" t="n">
-        <v>896</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>4.950276243093922</v>
+        <v>0.1878453038674033</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8066298342541437</v>
+        <v>0.9674863838917314</v>
       </c>
       <c r="I27" t="n">
-        <v>831</v>
+        <v>93</v>
       </c>
       <c r="J27" t="n">
-        <v>4.591160220994476</v>
+        <v>0.5138121546961326</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.9854761511800627</v>
       </c>
     </row>
     <row r="28">
@@ -1466,22 +1466,22 @@
         <v>223</v>
       </c>
       <c r="F28" t="n">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="G28" t="n">
-        <v>1.403587443946188</v>
+        <v>0.5515695067264574</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8026905829596412</v>
+        <v>0.8711307643714467</v>
       </c>
       <c r="I28" t="n">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="J28" t="n">
-        <v>1.42152466367713</v>
+        <v>0.9506726457399103</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9955156950672646</v>
+        <v>0.9917877447883765</v>
       </c>
     </row>
     <row r="29">
@@ -1503,22 +1503,22 @@
         <v>33</v>
       </c>
       <c r="F29" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.9622425629290617</v>
       </c>
       <c r="I29" t="n">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>4.666666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.9862700228832952</v>
       </c>
     </row>
     <row r="30">
@@ -1540,22 +1540,22 @@
         <v>94</v>
       </c>
       <c r="F30" t="n">
-        <v>433</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>4.606382978723405</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.9598832968636032</v>
       </c>
       <c r="I30" t="n">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="J30" t="n">
-        <v>3.542553191489362</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9964539007092199</v>
+        <v>0.9905178701677607</v>
       </c>
     </row>
     <row r="31">
@@ -1577,19 +1577,19 @@
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="I31" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J31" t="n">
-        <v>1.466666666666667</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1614,22 +1614,22 @@
         <v>39</v>
       </c>
       <c r="F32" t="n">
-        <v>2577</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>66.07692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.996992727869211</v>
       </c>
       <c r="I32" t="n">
-        <v>1327</v>
+        <v>15</v>
       </c>
       <c r="J32" t="n">
-        <v>34.02564102564103</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.9986877357974739</v>
       </c>
     </row>
     <row r="33">
@@ -1651,22 +1651,22 @@
         <v>112</v>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
-        <v>4.464285714285714</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8601190476190477</v>
+        <v>0.9632975719932242</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="J33" t="n">
-        <v>4.017857142857143</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.9904009034443817</v>
       </c>
     </row>
     <row r="34">
@@ -1688,22 +1688,22 @@
         <v>94</v>
       </c>
       <c r="F34" t="n">
-        <v>1559</v>
+        <v>49</v>
       </c>
       <c r="G34" t="n">
-        <v>16.58510638297872</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.9940877638609091</v>
       </c>
       <c r="I34" t="n">
-        <v>1538</v>
+        <v>22</v>
       </c>
       <c r="J34" t="n">
-        <v>16.36170212765957</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.9968468073924849</v>
       </c>
     </row>
     <row r="35">
@@ -1725,22 +1725,22 @@
         <v>127</v>
       </c>
       <c r="F35" t="n">
-        <v>1088</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>8.566929133858268</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7716535433070866</v>
+        <v>0.9809438737531636</v>
       </c>
       <c r="I35" t="n">
-        <v>954</v>
+        <v>20</v>
       </c>
       <c r="J35" t="n">
-        <v>7.511811023622047</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.9840702694655352</v>
       </c>
     </row>
     <row r="36">
@@ -1762,22 +1762,22 @@
         <v>29</v>
       </c>
       <c r="F36" t="n">
-        <v>850</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>29.31034482758621</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.9951232728257925</v>
       </c>
       <c r="I36" t="n">
-        <v>893</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>30.79310344827586</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.9981034949878081</v>
       </c>
     </row>
     <row r="37">
@@ -1799,22 +1799,22 @@
         <v>53</v>
       </c>
       <c r="F37" t="n">
-        <v>1233</v>
+        <v>57</v>
       </c>
       <c r="G37" t="n">
-        <v>23.26415094339623</v>
+        <v>1.075471698113208</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9308176100628931</v>
+        <v>0.9911297071129707</v>
       </c>
       <c r="I37" t="n">
-        <v>819</v>
+        <v>37</v>
       </c>
       <c r="J37" t="n">
-        <v>15.45283018867925</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.9986610878661087</v>
       </c>
     </row>
     <row r="38">
@@ -1836,22 +1836,22 @@
         <v>571</v>
       </c>
       <c r="F38" t="n">
-        <v>1322</v>
+        <v>110</v>
       </c>
       <c r="G38" t="n">
-        <v>2.31523642732049</v>
+        <v>0.1926444833625219</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8096906012842966</v>
+        <v>0.9296780440571291</v>
       </c>
       <c r="I38" t="n">
-        <v>1384</v>
+        <v>304</v>
       </c>
       <c r="J38" t="n">
-        <v>2.423817863397548</v>
+        <v>0.532399299474606</v>
       </c>
       <c r="K38" t="n">
-        <v>0.978984238178634</v>
+        <v>0.967441297506657</v>
       </c>
     </row>
     <row r="39">
@@ -1873,22 +1873,22 @@
         <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>7.387755102040816</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9727195225916454</v>
       </c>
       <c r="I39" t="n">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="J39" t="n">
-        <v>4.428571428571429</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.9965899403239556</v>
       </c>
     </row>
     <row r="40">
@@ -1910,22 +1910,22 @@
         <v>99</v>
       </c>
       <c r="F40" t="n">
-        <v>1664</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>16.80808080808081</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9057239057239057</v>
+        <v>0.9925786081635311</v>
       </c>
       <c r="I40" t="n">
-        <v>1330</v>
+        <v>35</v>
       </c>
       <c r="J40" t="n">
-        <v>13.43434343434343</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.9958336045830349</v>
       </c>
     </row>
     <row r="41">
@@ -1947,22 +1947,22 @@
         <v>24</v>
       </c>
       <c r="F41" t="n">
-        <v>490</v>
+        <v>33</v>
       </c>
       <c r="G41" t="n">
-        <v>20.41666666666667</v>
+        <v>1.375</v>
       </c>
       <c r="H41" t="n">
+        <v>0.9913473423980222</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="I41" t="n">
-        <v>307</v>
-      </c>
-      <c r="J41" t="n">
-        <v>12.79166666666667</v>
-      </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.9998234151509801</v>
       </c>
     </row>
     <row r="42">
@@ -1984,22 +1984,22 @@
         <v>189</v>
       </c>
       <c r="F42" t="n">
-        <v>1810</v>
+        <v>167</v>
       </c>
       <c r="G42" t="n">
-        <v>9.576719576719576</v>
+        <v>0.8835978835978836</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9435626102292769</v>
+        <v>0.991400660429279</v>
       </c>
       <c r="I42" t="n">
-        <v>1355</v>
+        <v>104</v>
       </c>
       <c r="J42" t="n">
-        <v>7.169312169312169</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.9970762245459549</v>
       </c>
     </row>
     <row r="43">
@@ -2021,19 +2021,19 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>35.875</v>
+        <v>2.125</v>
       </c>
       <c r="H43" t="n">
+        <v>0.9921043597665636</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>205</v>
-      </c>
-      <c r="J43" t="n">
-        <v>25.625</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>31</v>
       </c>
       <c r="F44" t="n">
-        <v>4280</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>138.0645161290323</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9975050223575919</v>
       </c>
       <c r="I44" t="n">
-        <v>2456</v>
+        <v>20</v>
       </c>
       <c r="J44" t="n">
-        <v>79.2258064516129</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.9996435746225131</v>
       </c>
     </row>
     <row r="45">
@@ -2095,22 +2095,22 @@
         <v>18</v>
       </c>
       <c r="F45" t="n">
-        <v>2972</v>
+        <v>102</v>
       </c>
       <c r="G45" t="n">
-        <v>165.1111111111111</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9928791261842979</v>
       </c>
       <c r="I45" t="n">
-        <v>1121</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>62.27777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.9996982680586567</v>
       </c>
     </row>
   </sheetData>
